--- a/biology/Zoologie/Helpis_minitabunda/Helpis_minitabunda.xlsx
+++ b/biology/Zoologie/Helpis_minitabunda/Helpis_minitabunda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helpis minitabunda est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helpis minitabunda est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'Est de l'Australie, en Nouvelle-Guinée et en Nouvelle-Zélande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'Est de l'Australie, en Nouvelle-Guinée et en Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Gardzińska en 1996 mesure 2,70 mm de long sur 2,10 mm et l'abdomen 3,70 mm de long et la carapace de la femelle mesure 3,80 mm de long sur 3,30 mm et l'abdomen 7,20 mm[2].
-Elle est très commune près des maisons[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Gardzińska en 1996 mesure 2,70 mm de long sur 2,10 mm et l'abdomen 3,70 mm de long et la carapace de la femelle mesure 3,80 mm de long sur 3,30 mm et l'abdomen 7,20 mm.
+Elle est très commune près des maisons.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L. Koch, 1880 : Die Arachniden Australiens. Nürnberg, vol. 1, p. 1157-1212 (texte intégral).</t>
         </is>
